--- a/HALVA-Statistical-Analysis.xlsx
+++ b/HALVA-Statistical-Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="70">
   <si>
     <t>Statistical analysis on general vision language tasks</t>
   </si>
@@ -23,7 +23,7 @@
     <t>We accept the performance drop in hallucination mitation method on general vision-language tasks is statistically significant if the adjusted_delta is greater than 0. We consider the standard error with statistical significance at 95% confidence.</t>
   </si>
   <si>
-    <t>original results are scaled between 0 to 1</t>
+    <t>original results are scaled between 0 to 1, where 0 represents the worst and 1 represents the best.</t>
   </si>
   <si>
     <t>TL;DR analysing if base_model is better than hallucination_mitigation_method on general tasks.</t>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>HADPO 7B worsen base model's performance in 2 out of 6 hallucination tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMHal-Bench </t>
   </si>
   <si>
     <t>EOS 7B worsen base model's performance in 2 out of 6 hallucination tasks and the performance drop on MME-Hall is statistically significant.</t>
@@ -31873,7 +31876,7 @@
     </row>
     <row r="58">
       <c r="A58" s="31" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B58" s="31">
         <v>0.46</v>
@@ -31952,7 +31955,7 @@
         <v>500.0</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62">
@@ -32105,7 +32108,7 @@
         <v>500.0</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -32258,7 +32261,7 @@
         <v>500.0</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
@@ -32411,7 +32414,7 @@
         <v>500.0</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83">

--- a/HALVA-Statistical-Analysis.xlsx
+++ b/HALVA-Statistical-Analysis.xlsx
@@ -228,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -236,7 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <b/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -247,7 +248,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -379,25 +387,25 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -433,10 +441,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -448,13 +459,10 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -466,34 +474,34 @@
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -731,7 +739,7 @@
     <col customWidth="1" min="4" max="4" width="8.25"/>
     <col customWidth="1" min="5" max="6" width="11.88"/>
     <col customWidth="1" min="7" max="7" width="16.13"/>
-    <col customWidth="1" min="8" max="8" width="35.88"/>
+    <col customWidth="1" min="8" max="8" width="68.75"/>
     <col customWidth="1" min="9" max="9" width="42.0"/>
   </cols>
   <sheetData>
@@ -2274,7 +2282,7 @@
       <c r="A42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="23" t="s">
         <v>35</v>
       </c>
       <c r="I42" s="3"/>
@@ -2325,11 +2333,11 @@
       <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24" t="s">
+      <c r="F44" s="24"/>
+      <c r="G44" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="24"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2354,11 +2362,11 @@
       <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="24" t="s">
+      <c r="F45" s="26"/>
+      <c r="G45" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="24"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2636,7 +2644,7 @@
       <c r="C52" s="2">
         <v>0.654</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="27">
         <v>0.008</v>
       </c>
       <c r="E52" s="2">
@@ -2754,7 +2762,7 @@
       <c r="C55" s="2">
         <v>0.311</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="27">
         <v>0.003</v>
       </c>
       <c r="E55" s="2">
@@ -2880,7 +2888,7 @@
       <c r="C58" s="2">
         <v>0.654</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="27">
         <v>0.004</v>
       </c>
       <c r="E58" s="2">
@@ -2998,7 +3006,7 @@
       <c r="C61" s="2">
         <v>0.311</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="27">
         <v>0.01</v>
       </c>
       <c r="E61" s="2">
@@ -3082,7 +3090,7 @@
       <c r="C63" s="2">
         <v>0.7554</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="27">
         <v>0.0081</v>
       </c>
       <c r="E63" s="2">
@@ -3124,7 +3132,7 @@
       <c r="C64" s="2">
         <v>0.654</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D64" s="27">
         <v>0.018</v>
       </c>
       <c r="E64" s="2">
@@ -3242,7 +3250,7 @@
       <c r="C67" s="2">
         <v>0.361</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="27">
         <v>0.017</v>
       </c>
       <c r="E67" s="2">
@@ -3326,7 +3334,7 @@
       <c r="C69" s="2">
         <v>0.7651</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="27">
         <v>0.007</v>
       </c>
       <c r="E69" s="2">
@@ -3368,7 +3376,7 @@
       <c r="C70" s="2">
         <v>0.725</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="27">
         <v>0.002</v>
       </c>
       <c r="E70" s="2">
@@ -3570,7 +3578,7 @@
       <c r="C75" s="2">
         <v>0.7848</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="27">
         <v>0.0031</v>
       </c>
       <c r="E75" s="2">
@@ -3612,7 +3620,7 @@
       <c r="C76" s="2">
         <v>0.808</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="27">
         <v>0.016</v>
       </c>
       <c r="E76" s="2">
@@ -30630,11 +30638,11 @@
     <col customWidth="1" min="4" max="4" width="8.0"/>
     <col customWidth="1" min="5" max="6" width="11.88"/>
     <col customWidth="1" min="7" max="7" width="16.13"/>
-    <col customWidth="1" min="8" max="8" width="31.63"/>
+    <col customWidth="1" min="8" max="8" width="74.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -30642,13 +30650,13 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
@@ -30672,21 +30680,21 @@
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
@@ -31712,7 +31720,7 @@
       <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="23" t="s">
         <v>63</v>
       </c>
     </row>
